--- a/Public_base_obsEliminadas.xlsx
+++ b/Public_base_obsEliminadas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmachin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmachin\Desktop\Git\citation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="1398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="1400">
   <si>
     <t>Cites</t>
   </si>
@@ -4219,6 +4219,12 @@
   </si>
   <si>
     <t>Poster</t>
+  </si>
+  <si>
+    <t>Rojo</t>
+  </si>
+  <si>
+    <t>Duda</t>
   </si>
 </sst>
 </file>
@@ -4228,7 +4234,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4280,6 +4286,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4302,7 +4315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4311,6 +4324,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4640,8 +4654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L325"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103:XFD103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4650,13 +4664,7 @@
     <col min="2" max="2" width="39.5703125" customWidth="1"/>
     <col min="3" max="3" width="152.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" customWidth="1"/>
-    <col min="10" max="10" width="3.140625" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" customWidth="1"/>
+    <col min="5" max="11" width="2.5703125" customWidth="1"/>
     <col min="12" max="12" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4698,67 +4706,67 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>155</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>1995</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>130</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="8">
         <v>2007</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="8">
         <v>2</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="8">
         <v>1</v>
       </c>
     </row>
@@ -4793,36 +4801,39 @@
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>94</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>2003</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>4</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4857,36 +4868,39 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>90</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>1996</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>6</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4921,6 +4935,9 @@
       <c r="K8">
         <v>1</v>
       </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -4953,6 +4970,9 @@
       <c r="K9">
         <v>1</v>
       </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -4985,6 +5005,9 @@
       <c r="K10">
         <v>1</v>
       </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -5017,6 +5040,9 @@
       <c r="K11">
         <v>1</v>
       </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -5084,36 +5110,39 @@
       <c r="K13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>63</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>2000</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>13</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5148,6 +5177,9 @@
       <c r="K15">
         <v>1</v>
       </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -5180,36 +5212,39 @@
       <c r="K16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>47</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>1999</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <v>16</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5244,6 +5279,9 @@
       <c r="K18">
         <v>1</v>
       </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -5311,6 +5349,9 @@
       <c r="K20">
         <v>1</v>
       </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -5343,6 +5384,9 @@
       <c r="K21">
         <v>1</v>
       </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -5375,36 +5419,39 @@
       <c r="K22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>38</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>2002</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="2">
         <v>23</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5439,6 +5486,9 @@
       <c r="K24">
         <v>1</v>
       </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -5506,6 +5556,9 @@
       <c r="K26">
         <v>1</v>
       </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -5538,6 +5591,9 @@
       <c r="K27">
         <v>1</v>
       </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -5570,6 +5626,9 @@
       <c r="K28">
         <v>1</v>
       </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -5602,36 +5661,39 @@
       <c r="K29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>1998</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="2">
         <v>32</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5666,6 +5728,9 @@
       <c r="K31">
         <v>1</v>
       </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -5698,6 +5763,9 @@
       <c r="K32">
         <v>1</v>
       </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -5730,36 +5798,39 @@
       <c r="K33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>27</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>2004</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="2">
         <v>36</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5794,6 +5865,9 @@
       <c r="K35">
         <v>1</v>
       </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -5823,6 +5897,9 @@
       <c r="K36">
         <v>1</v>
       </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -5855,6 +5932,9 @@
       <c r="K37">
         <v>1</v>
       </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -5887,6 +5967,9 @@
       <c r="K38">
         <v>1</v>
       </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -5923,35 +6006,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>23</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>2003</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="2">
         <v>42</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5983,6 +6066,9 @@
       <c r="K41">
         <v>1</v>
       </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -6015,6 +6101,9 @@
       <c r="K42">
         <v>1</v>
       </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -6047,6 +6136,9 @@
       <c r="K43">
         <v>1</v>
       </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -6079,6 +6171,9 @@
       <c r="K44">
         <v>1</v>
       </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -6111,6 +6206,9 @@
       <c r="K45">
         <v>1</v>
       </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -6178,36 +6276,39 @@
       <c r="K47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="L47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
         <v>23</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>1233</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="2">
         <v>1997</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="2" t="s">
         <v>1235</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="2" t="s">
         <v>1236</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="2">
         <v>50</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="2">
         <v>1</v>
       </c>
     </row>
@@ -6242,36 +6343,39 @@
       <c r="K49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="L49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
         <v>21</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>1174</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>1175</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <v>2006</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="2" t="s">
         <v>1176</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="2" t="s">
         <v>1178</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="2">
         <v>52</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="2">
         <v>1</v>
       </c>
     </row>
@@ -6306,36 +6410,39 @@
       <c r="K51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="L51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
         <v>20</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="2">
         <v>2001</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="2" t="s">
         <v>1155</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="2">
         <v>55</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="2">
         <v>1</v>
       </c>
     </row>
@@ -6370,6 +6477,9 @@
       <c r="K53">
         <v>1</v>
       </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
@@ -6402,6 +6512,9 @@
       <c r="K54">
         <v>1</v>
       </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -6434,6 +6547,9 @@
       <c r="K55">
         <v>1</v>
       </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -6466,6 +6582,9 @@
       <c r="K56">
         <v>1</v>
       </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -6498,6 +6617,9 @@
       <c r="K57">
         <v>1</v>
       </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -6530,68 +6652,71 @@
       <c r="K58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="L58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
         <v>16</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>1007</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="2">
         <v>2000</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="2" t="s">
         <v>1008</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="2">
         <v>62</v>
       </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="K59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
         <v>16</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="2">
         <v>2003</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="2">
         <v>63</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="2">
         <v>1</v>
       </c>
     </row>
@@ -6661,6 +6786,9 @@
       <c r="K62">
         <v>1</v>
       </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
@@ -6693,6 +6821,9 @@
       <c r="K63">
         <v>1</v>
       </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -6725,8 +6856,11 @@
       <c r="K64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>11</v>
       </c>
@@ -6757,8 +6891,11 @@
       <c r="K65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>14</v>
       </c>
@@ -6789,8 +6926,11 @@
       <c r="K66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>17</v>
       </c>
@@ -6821,8 +6961,11 @@
       <c r="K67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>14</v>
       </c>
@@ -6853,8 +6996,11 @@
       <c r="K68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>9</v>
       </c>
@@ -6885,8 +7031,11 @@
       <c r="K69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>9</v>
       </c>
@@ -6917,8 +7066,11 @@
       <c r="K70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>12</v>
       </c>
@@ -6949,8 +7101,11 @@
       <c r="K71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>15</v>
       </c>
@@ -6982,7 +7137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>11</v>
       </c>
@@ -7013,8 +7168,11 @@
       <c r="K73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>13</v>
       </c>
@@ -7046,39 +7204,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="75" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
         <v>13</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="2">
         <v>2001</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="2">
         <v>78</v>
       </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>11</v>
       </c>
@@ -7109,40 +7267,43 @@
       <c r="K76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="L76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
         <v>15</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>1147</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="2" t="s">
         <v>1148</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="2">
         <v>2011</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="2" t="s">
         <v>1152</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="2">
         <v>80</v>
       </c>
-      <c r="K77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>9</v>
       </c>
@@ -7173,8 +7334,11 @@
       <c r="K78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>10</v>
       </c>
@@ -7190,7 +7354,7 @@
       <c r="E79" t="s">
         <v>1306</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="1" t="s">
         <v>1307</v>
       </c>
       <c r="I79">
@@ -7202,8 +7366,11 @@
       <c r="K79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7</v>
       </c>
@@ -7234,40 +7401,43 @@
       <c r="K80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="L80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
         <v>10</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>1203</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="2">
         <v>2011</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="2" t="s">
         <v>1205</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="2">
         <v>84</v>
       </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>9</v>
       </c>
@@ -7298,40 +7468,43 @@
       <c r="K82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="L82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
         <v>10</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="2">
         <v>2001</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="2">
         <v>86</v>
       </c>
-      <c r="K83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>13</v>
       </c>
@@ -7362,8 +7535,11 @@
       <c r="K84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>10</v>
       </c>
@@ -7394,8 +7570,11 @@
       <c r="K85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>8</v>
       </c>
@@ -7426,8 +7605,11 @@
       <c r="K86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>6</v>
       </c>
@@ -7455,8 +7637,11 @@
       <c r="K87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>8</v>
       </c>
@@ -7487,8 +7672,11 @@
       <c r="K88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>6</v>
       </c>
@@ -7519,8 +7707,11 @@
       <c r="K89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>8</v>
       </c>
@@ -7551,8 +7742,11 @@
       <c r="K90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>6</v>
       </c>
@@ -7583,40 +7777,43 @@
       <c r="K91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="L91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
         <v>8</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>1035</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="2" t="s">
         <v>1036</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="2">
         <v>2010</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H92" s="2" t="s">
         <v>1038</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="2">
         <v>96</v>
       </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K92" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>6</v>
       </c>
@@ -7644,8 +7841,11 @@
       <c r="K93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>7</v>
       </c>
@@ -7676,8 +7876,11 @@
       <c r="K94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>5</v>
       </c>
@@ -7708,8 +7911,11 @@
       <c r="K95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>8</v>
       </c>
@@ -7738,6 +7944,9 @@
         <v>30</v>
       </c>
       <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
         <v>1</v>
       </c>
     </row>
@@ -7772,6 +7981,9 @@
       <c r="K97">
         <v>1</v>
       </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
@@ -7804,6 +8016,9 @@
       <c r="K98">
         <v>1</v>
       </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
@@ -7836,36 +8051,39 @@
       <c r="K99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="L99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
         <v>7</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="2">
         <v>2010</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="2">
         <v>105</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7900,6 +8118,9 @@
       <c r="K101">
         <v>1</v>
       </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
@@ -7929,36 +8150,39 @@
       <c r="K102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="L102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
         <v>6</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="2">
         <v>2012</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H103" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="2">
         <v>109</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="2">
         <v>1</v>
       </c>
     </row>
@@ -10714,7 +10938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1</v>
       </c>
@@ -10746,7 +10970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1</v>
       </c>
@@ -10777,8 +11001,11 @@
       <c r="K194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
@@ -10810,7 +11037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1</v>
       </c>
@@ -10842,7 +11069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1</v>
       </c>
@@ -10874,7 +11101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1</v>
       </c>
@@ -10906,7 +11133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1</v>
       </c>
@@ -10935,7 +11162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2</v>
       </c>
@@ -10967,7 +11194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -10996,7 +11223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1</v>
       </c>
@@ -11025,7 +11252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1</v>
       </c>
@@ -11057,7 +11284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1</v>
       </c>
@@ -11089,7 +11316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1</v>
       </c>
@@ -11118,7 +11345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1</v>
       </c>
@@ -11144,7 +11371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1</v>
       </c>
@@ -11176,7 +11403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2</v>
       </c>
@@ -14649,21 +14876,22 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G213" r:id="rId1"/>
+    <hyperlink ref="H79" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L36"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15927,6 +16155,14 @@
         <v>1397</v>
       </c>
     </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1399</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G30" r:id="rId1"/>
